--- a/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
@@ -432,7 +432,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>review_topic_main</t>
+          <t>review_topics</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>bf_frame</t>
+          <t>trait_frame</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -707,12 +707,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>skilltraitdifferences; incrementalvalidity; academicachievement;</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; skilltraitdifferences; incrementalvalidity; otherreport</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>individual_differences</t>
+          <t>ses; gender; age</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>academicachievement; learningdisabilities</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>academicachievement; learningdisabilities; disabilities</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>nomoligicalnet</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1446,12 +1446,12 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>nomoligicalnet</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; shortversions</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1945,12 +1945,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>normativechange; age; gender</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2470,12 +2470,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>prosociality</t>
+          <t>volunteering</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2734,12 +2734,12 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; behavioralassessment</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2866,12 +2866,12 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2984,12 +2984,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3110,12 +3110,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3485,12 +3485,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3617,12 +3617,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3749,12 +3749,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3881,12 +3881,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -4013,12 +4013,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>theoretical</t>
+          <t>theorydevelopment</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">

--- a/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -720,6 +720,11 @@
           <t>wraeringwald@gmail.com</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>https://osf.io/gaj3f/</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>cross</t>
@@ -1515,42 +1520,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0027</t>
+          <t>0026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0027</t>
+          <t>0026a</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/10731911241256434</t>
+          <t>https://doi.org/10.1525/collabra.120531</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Assessing Social, Emotional, and Behavioral Skills in Just a Few Minutes: 96-, 45-, and 20-Item Short Forms of the BESSI</t>
+          <t>Social, Emotional, and Behavioral (SEB) Skills in the Workplace</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Social, emotional, and behavioral (SEB) skills matter for individuals' well-being and success. The behavioral, emotional, and social skills inventory (BESSI) uses 192 items to assess 32 specific SEB skills across five broad skill domains. This research developed three short forms of the BESSI-192 and explored their measurement properties, predictive validity, and cross-cultural comparability. We found that BESSI-96, BESSI-45, and BESSI-20 largely captured the psychological content of the BESSI-192 measure, retained a robust multidimensional structure, and demonstrated adequate reliability. At the domain and facet level, the BESSI short forms showed patterns of associations with external criteria that were similar to the BESSI-192 and preserved most of the BESSI-192's predictive power. The BESSI short forms also demonstrated full or partial measurement invariance between the primarily U.S.-based and German adult samples. We conclude by discussing contexts in which the short forms may be useful for researchers and practitioners.</t>
+          <t>The current study sought to extend Soto et al. (2022)'s results on social, emotional, and behavioral (SEB) skills to a work setting and answer three key questions. First, do SEB skills predict consequential work-related outcomes? Second, do SEB skills provide incremental validity over the Big Five personality traits in predicting the outcomes? Third, is the joint effect of SEB skills and traits additive or multiplicative? Results from a sample of real estate agents (N N = 2,992) in China extend the criterion space of SEB skills by showing self-concepts of these skills are related to self-reported work outcomes such as citizenship behaviors and job satisfaction in a conceptually meaningful way. Further analyses show that these skill-outcome relationships remain robust after accounting for effects of traits, indicating SEB skills' incremental validity beyond traits in predicting outcomes. Finally, comparisons between additive and multiplicative models show support for the former because the interaction effects of SEB skills and traits provide little meaningful information beyond the additive models. Based on these findings, we discuss the implications for the SEB skills literature and practice.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ASSESSMENT</t>
+          <t>COLLABRA-PSYCHOLOGY</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sewell, Madison N. and Yoon, Hee J. and Lechner, Clemens M. and Napolitano, Christopher M. and Rammstedt, Beatrice and Roberts, Brent W. and Soto, Christopher J.</t>
+          <t>Chen, Lilang and Zhang, Bo and Li, Jian</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Sewell et al.</t>
+          <t>Chen et al.</t>
         </is>
       </c>
       <c r="K10">
@@ -1563,47 +1573,32 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>noNewData</t>
+          <t>include</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>skillassessment; selfreport; shortversions</t>
+          <t>jobperformance</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ms58@williams.edu</t>
+          <t>jianli@bnu.edu.cn</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>https://osf.io/2y7ua/?view_only=9cd00f088c7149abac50a7d5ceb5de18</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>cross</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>mixed</t>
+          <t>https://osf.io/8gu92/?view_only=377a9377d53848358bdd38d90cf817c1</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>TF</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>Should we add cor for shorter scales although same data?</t>
         </is>
       </c>
     </row>
@@ -1613,47 +1608,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0030</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>0027</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0030a</t>
+          <t>0027</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/00223891.2024.2335912</t>
+          <t>https://doi.org/10.1177/10731911241256434</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>The Italian Behavioral, Emotional, and Social Skills Inventory (BESSI-I)</t>
+          <t>Assessing Social, Emotional, and Behavioral Skills in Just a Few Minutes: 96-, 45-, and 20-Item Short Forms of the BESSI</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>The importance of social, emotional, and behavioral (SEB) skills is recognized worldwide, but their measurement has always been a challenge. The BESSI measures 32 SEB skills, divided into five domains (social engagement, cooperation, self-management, emotional resilience, and innovation), but its validity must be expanded to new languages and contexts. Across two studies (N1 = 990, N2= 824) we developed the Italian version of the BESSI, provided further support for its convergent and discriminant validity with the Big Five, and expanded its nomological network to procrastination, self-efficacy, and emotion regulation. The BESSI-I showed excellent internal reliability and satisfactory fit indices at the facet, domain, and overarching framework level. We also confirmed the correlations between the SEB skills and the Big Five personality traits and found meaningful correlations with the selected external outcomes. Overall, we confirm that the BESSI-I is a valid and useful instrument to assess SEB skills for research and clinical purposes.</t>
+          <t>Social, emotional, and behavioral (SEB) skills matter for individuals' well-being and success. The behavioral, emotional, and social skills inventory (BESSI) uses 192 items to assess 32 specific SEB skills across five broad skill domains. This research developed three short forms of the BESSI-192 and explored their measurement properties, predictive validity, and cross-cultural comparability. We found that BESSI-96, BESSI-45, and BESSI-20 largely captured the psychological content of the BESSI-192 measure, retained a robust multidimensional structure, and demonstrated adequate reliability. At the domain and facet level, the BESSI short forms showed patterns of associations with external criteria that were similar to the BESSI-192 and preserved most of the BESSI-192's predictive power. The BESSI short forms also demonstrated full or partial measurement invariance between the primarily U.S.-based and German adult samples. We conclude by discussing contexts in which the short forms may be useful for researchers and practitioners.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>JOURNAL OF PERSONALITY ASSESSMENT</t>
+          <t>ASSESSMENT</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Feraco, Tommaso and Casali, Nicole and Pellegrino, Gerardo and Soto, Christopher J. and Napolitano, Christopher M. and Carretti, Barbara and Meneghetti, Chiara</t>
+          <t>Sewell, Madison N. and Yoon, Hee J. and Lechner, Clemens M. and Napolitano, Christopher M. and Rammstedt, Beatrice and Roberts, Brent W. and Soto, Christopher J.</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Feraco et al.</t>
+          <t>Sewell et al.</t>
         </is>
       </c>
       <c r="K11">
@@ -1666,27 +1656,27 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>noNewData</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
+          <t>skillassessment; selfreport; shortversions</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>review</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>tommaso.feraco@unipd.it</t>
+          <t>ms58@williams.edu</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>https://doi. org/10.17605/OSF.IO/VYZPN and https://doi.org/10.17605/OSF.IO/ZXBD3</t>
+          <t>https://osf.io/2y7ua/?view_only=9cd00f088c7149abac50a7d5ceb5de18</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1696,41 +1686,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="T11">
-        <v>66</v>
-      </c>
-      <c r="U11">
-        <v>19.25</v>
-      </c>
-      <c r="V11">
-        <v>990</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>young_adult</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>not_clinical</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>bessi192</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>bf</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1740,7 +1696,7 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>includes school age and adults</t>
+          <t>Should we add cor for shorter scales although same data?</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1711,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0030b</t>
+          <t>0030a</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1837,13 +1793,13 @@
         </is>
       </c>
       <c r="T12">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="U12">
-        <v>19.06</v>
+        <v>19.25</v>
       </c>
       <c r="V12">
-        <v>824</v>
+        <v>990</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1887,47 +1843,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0034</t>
+          <t>0030</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>b</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0034a</t>
+          <t>0030b</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/10731911231225197</t>
+          <t>https://doi.org/10.1080/00223891.2024.2335912</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>The Behavioral, Emotional, and Social Skills Inventory: A Spanish Adaptation and Further Validation in Adult Population</t>
+          <t>The Italian Behavioral, Emotional, and Social Skills Inventory (BESSI-I)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Social, emotional, and behavioral (SEB) skills encompass a broad range of interpersonal and intrapersonal abilities that are crucial for establishing and maintaining relationships, managing emotions, setting and pursuing goals, and exploring new learning opportunities. To address the lack of consensus regarding terminology, definition, and assessment of SEB skills, Soto et al. developed the Behavioral, Emotional, and Social Skills Inventory (BESSI), which consists of 192 items, 32 facets, and 5 domains. The objective of the current study was to adapt the BESSI to Spanish (referred to as BESSI-Sp) and enhance the overall understanding of the BESSI framework. A sample of 303 people was employed with a mean age of 30.35 years (SD = 14.73), ranging from 18 to 85 years. The results indicate that the BESSI-Sp demonstrates strong psychometric properties. Its facet- and domain-level structure aligns with the theoretical expectations and closely resembles the English-language source version. The facets exhibit high reliability (mean omega = .89), and the scores demonstrate adequate stability after 3 to 4 weeks (mean rICC = .77). The BESSI-Sp also displays evidence of convergent validity and integrates well with the Big Five framework, providing incremental validity for various outcomes. We discuss the implications of these findings for the assessment of SEB skills and future research in this field.</t>
+          <t>The importance of social, emotional, and behavioral (SEB) skills is recognized worldwide, but their measurement has always been a challenge. The BESSI measures 32 SEB skills, divided into five domains (social engagement, cooperation, self-management, emotional resilience, and innovation), but its validity must be expanded to new languages and contexts. Across two studies (N1 = 990, N2= 824) we developed the Italian version of the BESSI, provided further support for its convergent and discriminant validity with the Big Five, and expanded its nomological network to procrastination, self-efficacy, and emotion regulation. The BESSI-I showed excellent internal reliability and satisfactory fit indices at the facet, domain, and overarching framework level. We also confirmed the correlations between the SEB skills and the Big Five personality traits and found meaningful correlations with the selected external outcomes. Overall, we confirm that the BESSI-I is a valid and useful instrument to assess SEB skills for research and clinical purposes.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ASSESSMENT</t>
+          <t>JOURNAL OF PERSONALITY ASSESSMENT</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Postigo, Alvaro and Gonzalez-Nuevo, Covadonga and Garcia-Fernandez, Jaime and Garcia-Cueto, Eduardo and Soto, Christopher J. and Napolitano, Christopher M. and Roberts, Brent W. and Cuesta, Marcelino</t>
+          <t>Feraco, Tommaso and Casali, Nicole and Pellegrino, Gerardo and Soto, Christopher J. and Napolitano, Christopher M. and Carretti, Barbara and Meneghetti, Chiara</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Postigo et al.</t>
+          <t>Feraco et al.</t>
         </is>
       </c>
       <c r="K13">
@@ -1940,7 +1896,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>missingData</t>
+          <t>include</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1955,12 +1911,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>postigoalvaro@uniovi,es</t>
+          <t>tommaso.feraco@unipd.it</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://doi. org/10.17605/OSF.IO/VYZPN and https://doi.org/10.17605/OSF.IO/ZXBD3</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1970,21 +1926,21 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="T13">
-        <v>25.4</v>
+        <v>54</v>
       </c>
       <c r="U13">
-        <v>30.35</v>
+        <v>19.06</v>
       </c>
       <c r="V13">
-        <v>303</v>
+        <v>824</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>young_adult</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2014,7 +1970,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>Only cor between skills and outcomes available</t>
+          <t>includes school age and adults</t>
         </is>
       </c>
     </row>
@@ -2024,7 +1980,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0035</t>
+          <t>0034</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2034,37 +1990,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0035a</t>
+          <t>0034a</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1371/journal.pone.0296484</t>
+          <t>https://doi.org/10.1177/10731911231225197</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Examining SEB skills' incremental validity over personality traits in predicting academic achievement</t>
+          <t>The Behavioral, Emotional, and Social Skills Inventory: A Spanish Adaptation and Further Validation in Adult Population</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Personality traits and social, emotional, and behavioral (SEB) skills share the same behavioral referents, but whereas traits refer to a person's typical or average performance, skills refer to their capacity or maximal performance. Given their shared behavioral foundations, an important question to address is whether personality traits and SEB skills independently predict important outcomes. In this study (N = 642), we examined whether subscales of the Behavioral, Emotional, and Social Skills Inventory (BESSI), a measure of SEB skills, provided incremental validity in the prediction of the ACT composite score, an important academic outcome for American adolescents, over the Big Five personality traits. Consistent with our expectations, on average, SEB skills showed stronger associations with ACT achievement scores than personality traits. Moreover, SEB skills added incremental validity over and above personality traits in predicting ACT achievement scores. The findings reinforce the importance of conceptually distinguishing and measuring traits and skills.</t>
+          <t>Social, emotional, and behavioral (SEB) skills encompass a broad range of interpersonal and intrapersonal abilities that are crucial for establishing and maintaining relationships, managing emotions, setting and pursuing goals, and exploring new learning opportunities. To address the lack of consensus regarding terminology, definition, and assessment of SEB skills, Soto et al. developed the Behavioral, Emotional, and Social Skills Inventory (BESSI), which consists of 192 items, 32 facets, and 5 domains. The objective of the current study was to adapt the BESSI to Spanish (referred to as BESSI-Sp) and enhance the overall understanding of the BESSI framework. A sample of 303 people was employed with a mean age of 30.35 years (SD = 14.73), ranging from 18 to 85 years. The results indicate that the BESSI-Sp demonstrates strong psychometric properties. Its facet- and domain-level structure aligns with the theoretical expectations and closely resembles the English-language source version. The facets exhibit high reliability (mean omega = .89), and the scores demonstrate adequate stability after 3 to 4 weeks (mean rICC = .77). The BESSI-Sp also displays evidence of convergent validity and integrates well with the Big Five framework, providing incremental validity for various outcomes. We discuss the implications of these findings for the assessment of SEB skills and future research in this field.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PLOS ONE</t>
+          <t>ASSESSMENT</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Yoon, Hee Jun and Roberts, Brent W. and Sewell, Madison N. and Napolitano, Christopher M. and Soto, Christopher J. and Murano, Dana and Casillas, Alex</t>
+          <t>Postigo, Alvaro and Gonzalez-Nuevo, Covadonga and Garcia-Fernandez, Jaime and Garcia-Cueto, Eduardo and Soto, Christopher J. and Napolitano, Christopher M. and Roberts, Brent W. and Cuesta, Marcelino</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yoon et al.</t>
+          <t>Postigo et al.</t>
         </is>
       </c>
       <c r="K14">
@@ -2077,12 +2033,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>missingData</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2092,12 +2048,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>yoon14@illinois.edu</t>
+          <t>postigoalvaro@uniovi,es</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>https://osf.io/uewav/?view_only=71c5aed524cc477194a76d22e69b7a6e</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -2107,21 +2063,21 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="T14">
-        <v>72.90000000000001</v>
+        <v>25.4</v>
       </c>
       <c r="U14">
-        <v>17.3</v>
+        <v>30.35</v>
       </c>
       <c r="V14">
-        <v>642</v>
+        <v>303</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>school_age</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2151,7 +2107,7 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>Only one facet per domain (not real domain)</t>
+          <t>Only cor between skills and outcomes available</t>
         </is>
       </c>
     </row>
@@ -2161,46 +2117,51 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0042</t>
+          <t>0035</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>a</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0042</t>
+          <t>0035a</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jintelligence11060118</t>
+          <t>https://doi.org/10.1371/journal.pone.0296484</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Social, Emotional, and Behavioral Skills: Age and Gender Differences at 12 to 19 Years Old</t>
+          <t>Examining SEB skills' incremental validity over personality traits in predicting academic achievement</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Individuals use social, emotional, and behavioral (SEB) skills to build and maintain social relationships, regulate emotions, and manage goal-directed behaviors. A promising integrative framework of SEB skills was recently proposed, showing that they matter for positive outcomes during adolescence. Nothing is known about how and whether they differ between 12 and 19 years old and whether such differences depend on gender (males or females). Uncovering their age trajectories is fundamental because SEB skills are highly needed during this period of life. Educators, psychologists, and policymakers need to understand when, why, and how interventions concerning SEB skills should be proposed, potentially considering male and female profiles. To cover this gap, we cross-sectionally analyzed data from 4106 participants (2215 females, 12-19 years old). We highlighted age and gender differences in the five domains of SEB skills (self-management, innovation, cooperation, social engagement, and emotional resilience). Our results show that each SEB skill follows a specific age trend: emotional resilience and cooperation skills increase naturally between 12 and 19 years old, while innovation, social engagement, and self-management skills decline, especially between 12 and 16 years old, and grow later. The trajectories of self-management, social engagement, and emotional resilience skills also differ between males and females. Importantly, we detected declines in SEB skills (especially for social engagement and innovation skills) that can inform policies and interventions to sustain SEB skills in youths to favor their well-being and success in this crucial period.</t>
+          <t>Personality traits and social, emotional, and behavioral (SEB) skills share the same behavioral referents, but whereas traits refer to a person's typical or average performance, skills refer to their capacity or maximal performance. Given their shared behavioral foundations, an important question to address is whether personality traits and SEB skills independently predict important outcomes. In this study (N = 642), we examined whether subscales of the Behavioral, Emotional, and Social Skills Inventory (BESSI), a measure of SEB skills, provided incremental validity in the prediction of the ACT composite score, an important academic outcome for American adolescents, over the Big Five personality traits. Consistent with our expectations, on average, SEB skills showed stronger associations with ACT achievement scores than personality traits. Moreover, SEB skills added incremental validity over and above personality traits in predicting ACT achievement scores. The findings reinforce the importance of conceptually distinguishing and measuring traits and skills.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>JOURNAL OF INTELLIGENCE</t>
+          <t>PLOS ONE</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Feraco, Tommaso and Meneghetti, Chiara</t>
+          <t>Yoon, Hee Jun and Roberts, Brent W. and Sewell, Madison N. and Napolitano, Christopher M. and Soto, Christopher J. and Murano, Dana and Casillas, Alex</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Feraco &amp; Meneghetti</t>
+          <t>Yoon et al.</t>
         </is>
       </c>
       <c r="K15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -2209,22 +2170,27 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>noOutcomeMeasure</t>
+          <t>include</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>normativechange; age; gender</t>
+          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>both</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>tommaso.feraco@unipd.it</t>
+          <t>yoon14@illinois.edu</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>https://osf.io/uewav/?view_only=71c5aed524cc477194a76d22e69b7a6e</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -2234,14 +2200,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>mixed</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="T15">
-        <v>54</v>
+        <v>72.90000000000001</v>
+      </c>
+      <c r="U15">
+        <v>17.3</v>
       </c>
       <c r="V15">
-        <v>4106</v>
+        <v>642</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -2263,9 +2232,19 @@
           <t>long</t>
         </is>
       </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>bf</t>
+        </is>
+      </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>TF</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Only one facet per domain (not real domain)</t>
         </is>
       </c>
     </row>
@@ -2275,47 +2254,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0043</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>0042</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0043a</t>
+          <t>0042</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.jrp.2023.104382</t>
+          <t>https://doi.org/10.3390/jintelligence11060118</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>What I Do and What I Can Do: Testing the convergence and incremental validity of social, emotional, and behavioral skills vs. traits for predicting academic success</t>
+          <t>Social, Emotional, and Behavioral Skills: Age and Gender Differences at 12 to 19 Years Old</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>The present research examined relations between social, emotional, and behavioral (SEB) skills, personality traits, and academic success in a sample of adolescents (N = 975). Results indicated that both skills and traits robustly predicted school grades, educational aspirations, and performance on a standardized achievement test, even after accounting for demographic characteristics. Moreover, skills and traits were often interchangeable: when assessed using the same cognitive, affective, and behavioral referents, they converged strongly and did not provide incremental validity over each other for predicting most outcomes. However, skills provided some in-cremental validity beyond traits for predicting standardized test performance. Taken together, these findings highlight the importance of SEB skills and personality traits for predicting and understanding academic success.</t>
+          <t>Individuals use social, emotional, and behavioral (SEB) skills to build and maintain social relationships, regulate emotions, and manage goal-directed behaviors. A promising integrative framework of SEB skills was recently proposed, showing that they matter for positive outcomes during adolescence. Nothing is known about how and whether they differ between 12 and 19 years old and whether such differences depend on gender (males or females). Uncovering their age trajectories is fundamental because SEB skills are highly needed during this period of life. Educators, psychologists, and policymakers need to understand when, why, and how interventions concerning SEB skills should be proposed, potentially considering male and female profiles. To cover this gap, we cross-sectionally analyzed data from 4106 participants (2215 females, 12-19 years old). We highlighted age and gender differences in the five domains of SEB skills (self-management, innovation, cooperation, social engagement, and emotional resilience). Our results show that each SEB skill follows a specific age trend: emotional resilience and cooperation skills increase naturally between 12 and 19 years old, while innovation, social engagement, and self-management skills decline, especially between 12 and 16 years old, and grow later. The trajectories of self-management, social engagement, and emotional resilience skills also differ between males and females. Importantly, we detected declines in SEB skills (especially for social engagement and innovation skills) that can inform policies and interventions to sustain SEB skills in youths to favor their well-being and success in this crucial period.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>JOURNAL OF RESEARCH IN PERSONALITY</t>
+          <t>JOURNAL OF INTELLIGENCE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Soto, Christopher J. and Napolitano, Christopher M. and Sewell, Madison N. and Yoon, Hee Jun and Murano, Dana and Casillas, Alex and Roberts, Brent W.</t>
+          <t>Feraco, Tommaso and Meneghetti, Chiara</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Soto et al.</t>
+          <t>Feraco &amp; Meneghetti</t>
         </is>
       </c>
       <c r="K16">
@@ -2328,27 +2302,27 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>noNewData</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
+          <t>normativechange; age; gender</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>review</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>christopher.soto@colby.edu</t>
+          <t>tommaso.feraco@unipd.it</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>https://osf.io/478mp/</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2358,17 +2332,14 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="T16">
-        <v>65.2</v>
-      </c>
-      <c r="U16">
-        <v>16.75</v>
+        <v>54</v>
       </c>
       <c r="V16">
-        <v>975</v>
+        <v>4106</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -2382,27 +2353,17 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>bessi20</t>
+          <t>bessi192</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>seb</t>
+          <t>long</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>TF</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>These were excluded from the corTab Grade level	Ethnicity Black/African-American	Ethnicity Hispanic/Latino	Ethnicity Asian/Asian-American</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2373,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0045</t>
+          <t>0043</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2422,37 +2383,37 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0045a</t>
+          <t>0043a</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/jora.12830</t>
+          <t>https://doi.org/10.1016/j.jrp.2023.104382</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>The social, emotional, and behavioral skill antecedents to college students' volunteering during the COVID-19 pandemic</t>
+          <t>What I Do and What I Can Do: Testing the convergence and incremental validity of social, emotional, and behavioral skills vs. traits for predicting academic success</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>The disruptions to community functioning caused by the COVID-19 pandemic spurred individuals to action. This empirical study investigated the social, emotional, and behavioral (SEB) skill antecedents to college students' volunteering during the COVID-19 pandemic (N = 248, Mage = 20.6). We assessed eight SEB skills at the onset of a volunteering program, and students' volunteer hours were assessed 10-weeks later. Approximately 41.5\% of the sample did not complete any volunteer hours. Higher levels of perspective taking skill, abstract thinking skill, and stress regulation were associated with more time spent volunteering. These results suggest that strength in particular SEB skills can prospectively predict prosocial civic behaviors.</t>
+          <t>The present research examined relations between social, emotional, and behavioral (SEB) skills, personality traits, and academic success in a sample of adolescents (N = 975). Results indicated that both skills and traits robustly predicted school grades, educational aspirations, and performance on a standardized achievement test, even after accounting for demographic characteristics. Moreover, skills and traits were often interchangeable: when assessed using the same cognitive, affective, and behavioral referents, they converged strongly and did not provide incremental validity over each other for predicting most outcomes. However, skills provided some in-cremental validity beyond traits for predicting standardized test performance. Taken together, these findings highlight the importance of SEB skills and personality traits for predicting and understanding academic success.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>JOURNAL OF RESEARCH ON ADOLESCENCE</t>
+          <t>JOURNAL OF RESEARCH IN PERSONALITY</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Sewell, Madison N. N. and Napolitano, Christopher M. M. and Roberts, Brent W. W. and Soto, Christopher J. J. and Yoon, Hee J. J.</t>
+          <t>Soto, Christopher J. and Napolitano, Christopher M. and Sewell, Madison N. and Yoon, Hee Jun and Murano, Dana and Casillas, Alex and Roberts, Brent W.</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Sewell et al.</t>
+          <t>Soto et al.</t>
         </is>
       </c>
       <c r="K17">
@@ -2470,7 +2431,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>volunteering</t>
+          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2480,17 +2441,17 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>mswell2@illinois.edu</t>
+          <t>christopher.soto@colby.edu</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>https://osf.io/2xamk/</t>
+          <t>https://osf.io/478mp/</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>cross</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2499,17 +2460,17 @@
         </is>
       </c>
       <c r="T17">
-        <v>76.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="U17">
-        <v>20.6</v>
+        <v>16.75</v>
       </c>
       <c r="V17">
-        <v>248</v>
+        <v>975</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>young_adult</t>
+          <t>school_age</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -2519,12 +2480,17 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>bessi192</t>
+          <t>bessi20</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>seb</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2534,7 +2500,7 @@
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>Some variables excluded (ethnicity…)</t>
+          <t>These were excluded from the corTab Grade level	Ethnicity Black/African-American	Ethnicity Hispanic/Latino	Ethnicity Asian/Asian-American</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2510,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0048</t>
+          <t>0045</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2554,41 +2520,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0048a</t>
+          <t>0045a</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/19485506221127483</t>
+          <t>https://doi.org/10.1111/jora.12830</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Going Beyond Traits: Social, Emotional, and Behavioral Skills Matter for Adolescents' Success</t>
+          <t>The social, emotional, and behavioral skill antecedents to college students' volunteering during the COVID-19 pandemic</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>The present research addresses three key questions about social, emotional, and behavioral (SEB) skills. First, how do SEB skills relate with the Big Five traits and Collaborative for Academic, Social, and Emotional Learning (CASEL) core competencies? Second, how do SEB skills relate with consequential outcomes in adolescence? Third, do SEB skills provide incremental validity beyond personality traits? Results from a diverse sample of high school students (N = 897) indicate that SEB skills converge with the Big Five traits and CASEL competencies in expected and conceptually meaningful ways. Analyses of self-reported and school-reported outcomes extend SEB skills' nomological network by showing that they predict academic achievement and engagement, occupational interests, social relationships, civic engagement, and well-being. Finally, tests of incremental validity indicate that SEB skills provide unique information beyond personality traits and that this information matters for predicting outcomes during adolescence. These findings advance our understanding of the nature, correlates, and consequences of SEB skills.</t>
+          <t>The disruptions to community functioning caused by the COVID-19 pandemic spurred individuals to action. This empirical study investigated the social, emotional, and behavioral (SEB) skill antecedents to college students' volunteering during the COVID-19 pandemic (N = 248, Mage = 20.6). We assessed eight SEB skills at the onset of a volunteering program, and students' volunteer hours were assessed 10-weeks later. Approximately 41.5\% of the sample did not complete any volunteer hours. Higher levels of perspective taking skill, abstract thinking skill, and stress regulation were associated with more time spent volunteering. These results suggest that strength in particular SEB skills can prospectively predict prosocial civic behaviors.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SOCIAL PSYCHOLOGICAL AND PERSONALITY SCIENCE</t>
+          <t>JOURNAL OF RESEARCH ON ADOLESCENCE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Soto, Christopher J. and Napolitano, Christopher and Sewell, Madison Nicole and Yoon, Hee Jun Roy and Roberts, Brent</t>
+          <t>Sewell, Madison N. N. and Napolitano, Christopher M. M. and Roberts, Brent W. W. and Soto, Christopher J. J. and Yoon, Hee J. J.</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Soto et al.</t>
+          <t>Sewell et al.</t>
         </is>
       </c>
       <c r="K18">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -2602,7 +2568,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
+          <t>volunteering</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2612,17 +2578,17 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>christopher.soto@colby.edu</t>
+          <t>mswell2@illinois.edu</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>https://osf.io/bcgq7/?view_only=3ac692bd87c54aa0b4f2d6aafc0f4b5f</t>
+          <t>https://osf.io/2xamk/</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>long</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2631,17 +2597,17 @@
         </is>
       </c>
       <c r="T18">
-        <v>53.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="U18">
-        <v>15.55</v>
+        <v>20.6</v>
       </c>
       <c r="V18">
-        <v>897</v>
+        <v>248</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>school_age</t>
+          <t>young_adult</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -2651,22 +2617,22 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>bessi45</t>
+          <t>bessi192</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>bf</t>
+          <t>long</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
           <t>TF</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>Some variables excluded (ethnicity…)</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2642,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0049</t>
+          <t>0048</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2686,41 +2652,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0049a</t>
+          <t>0048a</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jintelligence10030048</t>
+          <t>https://doi.org/10.1177/19485506221127483</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Predicting Actual Social Skill Expression from Personality and Skill Self-Concepts</t>
+          <t>Going Beyond Traits: Social, Emotional, and Behavioral Skills Matter for Adolescents' Success</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Social skills are of key importance in everyday and work life. However, the way in which they are typically assessed via self-report questionnaires has one potential downside</t>
+          <t>The present research addresses three key questions about social, emotional, and behavioral (SEB) skills. First, how do SEB skills relate with the Big Five traits and Collaborative for Academic, Social, and Emotional Learning (CASEL) core competencies? Second, how do SEB skills relate with consequential outcomes in adolescence? Third, do SEB skills provide incremental validity beyond personality traits? Results from a diverse sample of high school students (N = 897) indicate that SEB skills converge with the Big Five traits and CASEL competencies in expected and conceptually meaningful ways. Analyses of self-reported and school-reported outcomes extend SEB skills' nomological network by showing that they predict academic achievement and engagement, occupational interests, social relationships, civic engagement, and well-being. Finally, tests of incremental validity indicate that SEB skills provide unique information beyond personality traits and that this information matters for predicting outcomes during adolescence. These findings advance our understanding of the nature, correlates, and consequences of SEB skills.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>JOURNAL OF INTELLIGENCE</t>
+          <t>SOCIAL PSYCHOLOGICAL AND PERSONALITY SCIENCE</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Breil, Simon M. and Mielke, Ina and Ahrens, Helmut and Geldmacher, Thomas and Sensmeier, Janina and Marschall, Bernhard and Back, Mitja D.</t>
+          <t>Soto, Christopher J. and Napolitano, Christopher and Sewell, Madison Nicole and Yoon, Hee Jun Roy and Roberts, Brent</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Breil et al.</t>
+          <t>Soto et al.</t>
         </is>
       </c>
       <c r="K19">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2734,7 +2700,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>skillassessment; behavioralassessment</t>
+          <t>academicachievement; incrementalvalidity; skilltraitdifferences</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2744,12 +2710,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>simon.breil@wwu.de</t>
+          <t>christopher.soto@colby.edu</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>https://osf.io/74qnu/</t>
+          <t>https://osf.io/bcgq7/?view_only=3ac692bd87c54aa0b4f2d6aafc0f4b5f</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -2759,21 +2725,21 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="T19">
-        <v>64</v>
+        <v>53.5</v>
       </c>
       <c r="U19">
-        <v>20.3</v>
+        <v>15.55</v>
       </c>
       <c r="V19">
-        <v>137</v>
+        <v>897</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>young_adult</t>
+          <t>school_age</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -2783,12 +2749,12 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>bessi192</t>
+          <t>bessi45</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2808,7 +2774,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0050</t>
+          <t>0049</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2818,22 +2784,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0050a</t>
+          <t>0049a</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3390/jintelligence10030063</t>
+          <t>https://doi.org/10.3390/jintelligence10030048</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>The Behavioral, Emotional, and Social Skills Inventory (BESSI): Psychometric Properties of a German-Language Adaptation, Temporal Stabilities of the Skills, and Associations with Personality and Intelligence</t>
+          <t>Predicting Actual Social Skill Expression from Personality and Skill Self-Concepts</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Social, emotional, and behavioral (SEB) skills comprise a broad set of abilities that are essential for building and maintaining relationships, regulating emotions, selecting and pursuing goals, or exploring novel stimuli. Toward an improved SEB skill assessment, Soto and colleagues recently introduced the Behavioral, Emotional, and Social Skills Inventory (BESSI). Measuring 32 facets from 5 domains with 192 items (assessment duration: similar to 15 min), BESSI constitutes the most extensive SEB inventory to date. However, so far, BESSI exists only in English. In three studies, we comprehensively validated a novel German-language adaptation, BESSI-G. Moreover, we expanded evidence on BESSI in three ways by (1) assessing the psychometric properties of the 32 individual skill facets, in addition to their domain-level structure</t>
+          <t>Social skills are of key importance in everyday and work life. However, the way in which they are typically assessed via self-report questionnaires has one potential downside</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2843,12 +2809,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lechner, Clemens M. and Knopf, Thomas and Napolitano, Christopher M. and Rammstedt, Beatrice and Roberts, Brent W. and Soto, Christopher J. and Spengler, Marion</t>
+          <t>Breil, Simon M. and Mielke, Ina and Ahrens, Helmut and Geldmacher, Thomas and Sensmeier, Janina and Marschall, Bernhard and Back, Mitja D.</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Lechner et al.</t>
+          <t>Breil et al.</t>
         </is>
       </c>
       <c r="K20">
@@ -2866,7 +2832,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
+          <t>skillassessment; behavioralassessment</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2876,12 +2842,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>clemens.lechner@gesis.org</t>
+          <t>simon.breil@wwu.de</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>NOT WORKING</t>
+          <t>https://osf.io/74qnu/</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2894,6 +2860,20 @@
           <t>Germany</t>
         </is>
       </c>
+      <c r="T20">
+        <v>64</v>
+      </c>
+      <c r="U20">
+        <v>20.3</v>
+      </c>
+      <c r="V20">
+        <v>137</v>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>young_adult</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr">
         <is>
           <t>not_clinical</t>
@@ -2909,14 +2889,14 @@
           <t>long</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>bf</t>
+        </is>
+      </c>
       <c r="AC20" t="inlineStr">
         <is>
           <t>TF</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>OSF NOT WORKING</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2911,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0050b</t>
+          <t>0050a</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3010,14 +2990,6 @@
       <c r="S21" t="inlineStr">
         <is>
           <t>Germany</t>
-        </is>
-      </c>
-      <c r="V21">
-        <v>940</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>adult</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -3057,12 +3029,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0050c</t>
+          <t>0050b</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3130,40 +3102,35 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="V22">
+        <v>940</v>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>not_clinical</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>bessi192</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
           <t>long</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="V22">
-        <v>767</v>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>adult</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>not_clinical</t>
-        </is>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>bessi192</t>
-        </is>
-      </c>
-      <c r="AA22" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>bf</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3183,47 +3150,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0053</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0053a</t>
+          <t>0050c</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/pspp0000401</t>
+          <t>https://doi.org/10.3390/jintelligence10030063</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>An Integrative Framework for Conceptualizing and Assessing Social, Emotional, and Behavioral Skills: The BESSI</t>
+          <t>The Behavioral, Emotional, and Social Skills Inventory (BESSI): Psychometric Properties of a German-Language Adaptation, Temporal Stabilities of the Skills, and Associations with Personality and Intelligence</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>People differ in their social, emotional, and behavioral (SEB) skills: their capacities to maintain social relationships, regulate emotions, and manage goal- and learning-directed behaviors. In five studies using data from seven independent samples (N = 6,309), we address three key questions about the nature, structure, assessment, and outcomes of SEB skills. First, how can SEB skills be defined and distinguished from other kinds of psychological constructs, such as personality traits? We propose that SEB skills represent how someone is capable of thinking, feeling, and behaving when the situation calls for it, whereas traits represent how someone tends to think, feel, and behave averaged across situations. Second, how can specific SEB skills be organized within broader domains? We find that many skill facets can be organized within five major domains representing Social Engagement, Cooperation, Self-Management, Emotional Resilience, and Innovation Skills. Third, how should SEB skills be measured? We develop and validate the Behavioral, Emotional, and Social Skills Inventory (BESSI) to measure individuals' capacity to enact specific behaviors representing 32 skill facets. We then use the BESSI to investigate the nomological network of SEB skills. We show that both skill domains and facets converge in conceptually meaningful ways with socioemotional competencies, character and developmental strengths, and personality traits, and predict consequential outcomes including academic achievement and engagement, occupational interests, social relationships, and well-being. We believe that this work provides the most comprehensive model currently available for conceptualizing SEB skills, as well as the most psychometrically robust tool available for assessing them.</t>
+          <t>Social, emotional, and behavioral (SEB) skills comprise a broad set of abilities that are essential for building and maintaining relationships, regulating emotions, selecting and pursuing goals, or exploring novel stimuli. Toward an improved SEB skill assessment, Soto and colleagues recently introduced the Behavioral, Emotional, and Social Skills Inventory (BESSI). Measuring 32 facets from 5 domains with 192 items (assessment duration: similar to 15 min), BESSI constitutes the most extensive SEB inventory to date. However, so far, BESSI exists only in English. In three studies, we comprehensively validated a novel German-language adaptation, BESSI-G. Moreover, we expanded evidence on BESSI in three ways by (1) assessing the psychometric properties of the 32 individual skill facets, in addition to their domain-level structure</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>JOURNAL OF PERSONALITY AND SOCIAL PSYCHOLOGY</t>
+          <t>JOURNAL OF INTELLIGENCE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Soto, Christopher J. and Napolitano, Christopher M. and Sewell, Madison N. and Yoon, Hee J. and Roberts, Brent W.</t>
+          <t>Lechner, Clemens M. and Knopf, Thomas and Napolitano, Christopher M. and Rammstedt, Beatrice and Roberts, Brent W. and Soto, Christopher J. and Spengler, Marion</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Soto et al.</t>
+          <t>Lechner et al.</t>
         </is>
       </c>
       <c r="K23">
@@ -3236,12 +3203,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>noValidatedMeasure</t>
+          <t>include</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
+          <t>skillassessment; selfreport; nomologicalnet; languageadaptation</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3251,32 +3218,26 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>christopher.soto@colby.edu</t>
+          <t>clemens.lechner@gesis.org</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>https://osf.io/4zgyr/</t>
+          <t>NOT WORKING</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>cross</t>
+          <t>long</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="T23">
-        <v>49</v>
-      </c>
-      <c r="U23">
-        <v>24.17</v>
+          <t>Germany</t>
+        </is>
       </c>
       <c r="V23">
-        <v>2000</v>
+        <v>767</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -3288,6 +3249,16 @@
           <t>not_clinical</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>bessi192</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
       <c r="AB23" t="inlineStr">
         <is>
           <t>bf</t>
@@ -3296,6 +3267,11 @@
       <c r="AC23" t="inlineStr">
         <is>
           <t>TF</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>OSF NOT WORKING</t>
         </is>
       </c>
     </row>
@@ -3310,12 +3286,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0053b</t>
+          <t>0053a</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3392,10 +3368,10 @@
         </is>
       </c>
       <c r="T24">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U24">
-        <v>23.31</v>
+        <v>24.17</v>
       </c>
       <c r="V24">
         <v>2000</v>
@@ -3432,12 +3408,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0053c</t>
+          <t>0053b</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3480,7 +3456,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>noValidatedMeasure</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -3517,10 +3493,10 @@
         <v>50</v>
       </c>
       <c r="U25">
-        <v>25.23</v>
+        <v>23.31</v>
       </c>
       <c r="V25">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -3530,16 +3506,6 @@
       <c r="X25" t="inlineStr">
         <is>
           <t>not_clinical</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>bessi192</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>long</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3564,12 +3530,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0053d</t>
+          <t>0053c</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3649,10 +3615,10 @@
         <v>50</v>
       </c>
       <c r="U26">
-        <v>26.41</v>
+        <v>25.23</v>
       </c>
       <c r="V26">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -3696,12 +3662,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>d</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0053e</t>
+          <t>0053d</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3778,17 +3744,17 @@
         </is>
       </c>
       <c r="T27">
-        <v>69.59999999999999</v>
+        <v>50</v>
       </c>
       <c r="U27">
-        <v>19.38</v>
+        <v>26.41</v>
       </c>
       <c r="V27">
-        <v>322</v>
+        <v>600</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>young_adult</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3828,12 +3794,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>e</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0053f</t>
+          <t>0053e</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3910,17 +3876,17 @@
         </is>
       </c>
       <c r="T28">
-        <v>52.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="U28">
-        <v>15.62</v>
+        <v>19.38</v>
       </c>
       <c r="V28">
-        <v>499</v>
+        <v>322</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>school_age</t>
+          <t>young_adult</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3960,12 +3926,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0053g</t>
+          <t>0053f</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4042,17 +4008,17 @@
         </is>
       </c>
       <c r="T29">
-        <v>51.6</v>
+        <v>52.7</v>
       </c>
       <c r="U29">
-        <v>49.26</v>
+        <v>15.62</v>
       </c>
       <c r="V29">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>school_age</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -4062,12 +4028,17 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>bessi_otherReport</t>
+          <t>bessi192</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>long</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>bf</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4082,73 +4053,200 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>0053</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0053g</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/pspp0000401</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>An Integrative Framework for Conceptualizing and Assessing Social, Emotional, and Behavioral Skills: The BESSI</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>People differ in their social, emotional, and behavioral (SEB) skills: their capacities to maintain social relationships, regulate emotions, and manage goal- and learning-directed behaviors. In five studies using data from seven independent samples (N = 6,309), we address three key questions about the nature, structure, assessment, and outcomes of SEB skills. First, how can SEB skills be defined and distinguished from other kinds of psychological constructs, such as personality traits? We propose that SEB skills represent how someone is capable of thinking, feeling, and behaving when the situation calls for it, whereas traits represent how someone tends to think, feel, and behave averaged across situations. Second, how can specific SEB skills be organized within broader domains? We find that many skill facets can be organized within five major domains representing Social Engagement, Cooperation, Self-Management, Emotional Resilience, and Innovation Skills. Third, how should SEB skills be measured? We develop and validate the Behavioral, Emotional, and Social Skills Inventory (BESSI) to measure individuals' capacity to enact specific behaviors representing 32 skill facets. We then use the BESSI to investigate the nomological network of SEB skills. We show that both skill domains and facets converge in conceptually meaningful ways with socioemotional competencies, character and developmental strengths, and personality traits, and predict consequential outcomes including academic achievement and engagement, occupational interests, social relationships, and well-being. We believe that this work provides the most comprehensive model currently available for conceptualizing SEB skills, as well as the most psychometrically robust tool available for assessing them.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>JOURNAL OF PERSONALITY AND SOCIAL PSYCHOLOGY</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Soto, Christopher J. and Napolitano, Christopher M. and Sewell, Madison N. and Yoon, Hee J. and Roberts, Brent W.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Soto et al.</t>
+        </is>
+      </c>
+      <c r="K30">
+        <v>2022</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>skillassessment; selfreport; otherreport; incrementalvalidity; nomologicalnet; skilltraitdifferences</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>both</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>christopher.soto@colby.edu</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>https://osf.io/4zgyr/</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="T30">
+        <v>51.6</v>
+      </c>
+      <c r="U30">
+        <v>49.26</v>
+      </c>
+      <c r="V30">
+        <v>488</v>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>not_clinical</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>bessi_otherReport</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>TF</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45688</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>0057</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>0057</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/feduc.2021.679561</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Social, Emotional, and Behavioral Skills: An Integrative Model of the Skills Associated With Success During Adolescence and Across the Life Span</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Social, emotional, and behavioral (SEB) skills encompass a wide range of competencies related to how individuals build and maintain relationships, understand and manage emotions, pursue goals, and learn from experience. Despite near-consensus on the importance of SEB skills for success in life, there are numerous frameworks that simultaneously converge and diverge in how they define and measure SEB skills. In this article, we discuss our integrative model encompassing five broad skill domains: Self-Management, Innovation, Social Engagement, Cooperation, and Emotional Resilience Skills (Soto et al., 2021a). Our model defines SEB skills as skills (i.e., what someone is capable of doing) and not traits (i.e., what someone tends to do). Using this definition and model as a foundation, we argue for the importance of investigating SEB skill development during adolescence, a period where SEB skills may be both particularly amenable to change and particularly predictive of life outcomes. In particular, we highlight how SEB skills allow adolescents to take advantage of the new opportunities afforded to them as they make major cognitive and social transitions.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>FRONTIERS IN EDUCATION</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Napolitano, Christopher M. and Sewell, Madison N. and Yoon, Hee J. and Soto, Christopher J. and Roberts, Brent W.</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Napolitano et al.</t>
         </is>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>2021</v>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>include</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>noNewData</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>theoretical</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>theorydevelopment</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>cmn@illinois.edu</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>TF</t>
         </is>

--- a/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
@@ -1596,6 +1596,50 @@
           <t>https://osf.io/8gu92/?view_only=377a9377d53848358bdd38d90cf817c1</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>cross</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="T10">
+        <v>29</v>
+      </c>
+      <c r="U10">
+        <v>30.25</v>
+      </c>
+      <c r="V10">
+        <v>2992</v>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>not_clinical</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>bessi45</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>bf</t>
+        </is>
+      </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>TF</t>
@@ -2048,7 +2092,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>postigoalvaro@uniovi,es</t>
+          <t>postigoalvaro@uniovi.es</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2909,14 +2953,9 @@
           <t>0050</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0050a</t>
+          <t>0050</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2959,7 +2998,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>noValidatedMeasure</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2979,7 +3018,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>NOT WORKING</t>
+          <t>https://osf.io/9pvmj/?view_only=16e79cfced2743aab00d937215a8fe17</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -3029,12 +3068,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0050b</t>
+          <t>0050a</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -3097,7 +3136,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>NOT WORKING</t>
+          <t>https://osf.io/9pvmj/?view_only=16e79cfced2743aab00d937215a8fe17</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -3109,6 +3148,12 @@
         <is>
           <t>Germany</t>
         </is>
+      </c>
+      <c r="T22">
+        <v>50</v>
+      </c>
+      <c r="U22">
+        <v>43.33</v>
       </c>
       <c r="V22">
         <v>940</v>
@@ -3155,12 +3200,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>b</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0050c</t>
+          <t>0050b</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -3223,7 +3268,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>NOT WORKING</t>
+          <t>https://osf.io/9pvmj/?view_only=16e79cfced2743aab00d937215a8fe17</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -3235,6 +3280,12 @@
         <is>
           <t>Germany</t>
         </is>
+      </c>
+      <c r="T23">
+        <v>53</v>
+      </c>
+      <c r="U23">
+        <v>30.76</v>
       </c>
       <c r="V23">
         <v>767</v>

--- a/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
@@ -642,6 +642,11 @@
           <t>TF</t>
         </is>
       </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>only one skill assessed and nothing else</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">

--- a/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
+++ b/data/3.meta_data/basic_info/25_01_31_basic_info.xlsx
@@ -2082,7 +2082,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>missingData</t>
+          <t>include</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
